--- a/Aula4/Tabela de Vendedores.xlsx
+++ b/Aula4/Tabela de Vendedores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\Smart-Planning\Aula4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Smart-Planning\Aula4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vendas!$A$1:$D$78</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1865,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2091,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aula4/Tabela de Vendedores.xlsx
+++ b/Aula4/Tabela de Vendedores.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Smart-Planning\Aula4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\Smart-Planning\Aula4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10890" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas" sheetId="1" r:id="rId1"/>
     <sheet name="Cadastro Vendedores" sheetId="2" r:id="rId2"/>
-    <sheet name="Comissão" sheetId="4" r:id="rId3"/>
+    <sheet name="Comissão Variavel" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vendas!$A$1:$D$78</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -237,6 +237,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -520,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1866,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,22 +2089,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
